--- a/MarsFramework/ExcelData/Seller_Test_Data.xlsx
+++ b/MarsFramework/ExcelData/Seller_Test_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinky Sindhu\Desktop\Industry Connect\Industry Connect\Internship\Task 2\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48715C71-1A04-44B6-892A-3FF8DBBBE561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F5333-7AB3-41E9-996E-EEF269369784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3144" yWindow="2826" windowWidth="14400" windowHeight="7374" activeTab="1" xr2:uid="{47384E78-1A99-4AD6-B104-C46CFD79473E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{47384E78-1A99-4AD6-B104-C46CFD79473E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -140,21 +140,16 @@
     <t>20-05-2020</t>
   </si>
   <si>
-    <t>6:00 PM</t>
-  </si>
-  <si>
-    <t>8:00 PM</t>
+    <t>6:00:00 PM</t>
+  </si>
+  <si>
+    <t>8:00:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,18 +194,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,120 +571,121 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="20.15625" customWidth="1"/>
-    <col min="5" max="5" width="18.26171875" customWidth="1"/>
-    <col min="6" max="6" width="24.83984375" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="12" width="12.68359375" customWidth="1"/>
-    <col min="13" max="13" width="14.41796875" customWidth="1"/>
-    <col min="14" max="14" width="19.578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.41796875" customWidth="1"/>
-    <col min="16" max="16" width="10.68359375" customWidth="1"/>
+    <col min="1" max="4" width="20.15625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.26171875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.83984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18" style="4" customWidth="1"/>
+    <col min="8" max="12" width="12.68359375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="14.41796875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.41796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.68359375" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.83984375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -714,11 +709,11 @@
     <col min="2" max="2" width="20.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/MarsFramework/ExcelData/Seller_Test_Data.xlsx
+++ b/MarsFramework/ExcelData/Seller_Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pinky Sindhu\Desktop\Industry Connect\Industry Connect\Internship\Task 2\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85F5333-7AB3-41E9-996E-EEF269369784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE9FFA-6108-4B94-8128-3B7386397C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{47384E78-1A99-4AD6-B104-C46CFD79473E}"/>
   </bookViews>
@@ -134,16 +134,16 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>04-04-2020</t>
-  </si>
-  <si>
-    <t>20-05-2020</t>
-  </si>
-  <si>
     <t>6:00:00 PM</t>
   </si>
   <si>
     <t>8:00:00 PM</t>
+  </si>
+  <si>
+    <t>14/04/2021</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -662,19 +662,19 @@
         <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>18</v>
